--- a/2-PERSONAL/----PENDIENTES/1-TARJETAS/TARJETAS JULIO 2022 - copia.xlsx
+++ b/2-PERSONAL/----PENDIENTES/1-TARJETAS/TARJETAS JULIO 2022 - copia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\----PENDIENTES\1-TARJETAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC9A663-F172-43B4-8887-10582E0EE1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE88D4F-39D5-413E-8EF9-CEE471D4D6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{54ED3116-D856-4461-A2E6-C2AABF56CD84}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="29-04-22" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'29-04-22'!$A$1:$I$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'29-04-22'!$A$1:$I$12</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -674,13 +674,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784C135D-D75E-4FC4-9F43-5B9268FEBE9E}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,7 +886,7 @@
       <c r="H8" s="22"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -909,7 +909,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -932,7 +932,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -955,7 +955,7 @@
       <c r="H11" s="18"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -979,7 +979,12 @@
       <c r="I12" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I11" xr:uid="{784C135D-D75E-4FC4-9F43-5B9268FEBE9E}">
+  <autoFilter ref="A1:I12" xr:uid="{784C135D-D75E-4FC4-9F43-5B9268FEBE9E}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Mañana"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I12">
       <sortCondition ref="G1:G11"/>
     </sortState>
